--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685263.234010493</v>
+        <v>1682886.607063127</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86.71148563472981</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>311.8852783808532</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.7496838484315</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.43987397211035</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>268.060441749872</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>71.47848437611523</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.5817891454365</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426056</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>33.01590015522353</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>24.55276019063715</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>217.1547528334196</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182169</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892427717</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>121.3986907513285</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>254.9807295802542</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>159.365405854055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1532.019095624401</v>
+        <v>527.8767859460547</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.05657868399</v>
+        <v>527.8767859460547</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.05657868399</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>777.2683260857452</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>366.2824212961377</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1918.618935688523</v>
+        <v>527.8767859460547</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>638.3296170496766</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.2580926322055</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>352.2580926322055</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>352.2580926322055</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>352.2580926322055</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>352.2580926322055</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322055</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.2580926322055</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1113.627677512998</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="C5" t="n">
-        <v>744.6651605725865</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1550.344274257713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.22751757712</v>
+        <v>1550.344274257713</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854563</v>
+        <v>1235.944923462395</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450446</v>
+        <v>1235.944923462395</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251363</v>
+        <v>877.6792248556444</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251363</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800309</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549578</v>
+        <v>1622.544763526517</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.645352205167</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.96086399928</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5498,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5835,19 +5835,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S22" t="n">
-        <v>2324.338143427403</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="23">
@@ -6072,13 +6072,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,7 +6260,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1786.950491752799</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1532.266003546912</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.848833509951</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1014.859282611934</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0667034684034</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,10 +6546,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,10 +7260,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024581</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515136</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393159</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865407</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.62759525031606</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>31.20374480898994</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707353</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707361</v>
@@ -26439,25 +26439,25 @@
         <v>6897.424496707368</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707363</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707374</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356052</v>
+        <v>-805922.1324356054</v>
       </c>
       <c r="C6" t="n">
         <v>308829.6511403146</v>
       </c>
       <c r="D6" t="n">
-        <v>308829.6511403146</v>
+        <v>308829.6511403147</v>
       </c>
       <c r="E6" t="n">
-        <v>-90860.10614665662</v>
+        <v>-90894.84407209179</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="J6" t="n">
-        <v>249020.1576679069</v>
+        <v>248985.4197424711</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="M6" t="n">
-        <v>284018.0417489627</v>
+        <v>283983.3038235273</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524537</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>267.9715559859532</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>99.66242439210077</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>15.5569161963727</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>27.11769844746325</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>86.62259987081092</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>298.2526163023538</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>61.16690685177548</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807731</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>348.9144699170382</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,19 +28059,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>261.6743939305634</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.36824550317144</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-3.232838081714498e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929664</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32792,16 +32792,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,13 +33266,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>535.674790460104</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335542</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>18.86448192629967</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
